--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipkochan/farnost/file-utilities/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC638C9-681B-6F41-826D-7B19CC96343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394D9BC-7B32-7043-91B7-77F5B0C37342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="7800" windowWidth="28040" windowHeight="17440" xr2:uid="{A5301FB1-166A-4347-A39F-478E72E545B8}"/>
+    <workbookView xWindow="7960" yWindow="4920" windowWidth="28040" windowHeight="17440" xr2:uid="{A5301FB1-166A-4347-A39F-478E72E545B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>prague</t>
+  </si>
+  <si>
+    <t>17.2.-17.4.</t>
   </si>
 </sst>
 </file>
@@ -86,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FF7D89-0BB5-B245-859F-3E910DD8CE42}">
-  <dimension ref="A3:C4"/>
+  <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,14 +426,34 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2022</v>
+      <c r="A4" s="1">
+        <v>44835</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipkochan/farnost/file-utilities/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394D9BC-7B32-7043-91B7-77F5B0C37342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1257B5E-7D2C-E44F-A161-7A9DFE4E5BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="4920" windowWidth="28040" windowHeight="17440" xr2:uid="{A5301FB1-166A-4347-A39F-478E72E545B8}"/>
+    <workbookView xWindow="18500" yWindow="2460" windowWidth="28040" windowHeight="17440" xr2:uid="{A5301FB1-166A-4347-A39F-478E72E545B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>17.2.-17.4.</t>
+  </si>
+  <si>
+    <t>10/2-11/2</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FF7D89-0BB5-B245-859F-3E910DD8CE42}">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,6 +459,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
